--- a/Test/MC_Ssf/T1/Sensors_data_1000008.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000008.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2887666587625197</v>
+        <v>0.7662251169173073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06544453438382884</v>
+        <v>0.0118712633275843</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008948603620456519</v>
+        <v>0.136910414627653</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.272476753505983</v>
+        <v>0.8365690597190401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03018652871019337</v>
+        <v>0.006781106713358705</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1794313121981517</v>
+        <v>-0.003092108508225833</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.9384628972539668</v>
+        <v>-0.2022113999356718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06091327237531068</v>
+        <v>0.03777767970732063</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2479709935218305</v>
+        <v>0.06527315765414403</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.114716855744368</v>
+        <v>-0.1525506735783591</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06263309359821718</v>
+        <v>0.03413592416347953</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7281191951723494</v>
+        <v>0.4807358098462707</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.993498665030785</v>
+        <v>0.9412623381983989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002834718381437482</v>
+        <v>0.002561085229111957</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0077457113738717</v>
+        <v>-0.02724679290377896</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
